--- a/SimulatedAnnealing/temp/krob200_all.xlsx
+++ b/SimulatedAnnealing/temp/krob200_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foldery vD\Studia\Sem 5\PEA\kolejne podejście\SimulatedAnnealing\SimulatedAnnealing\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5ACA13-25BD-46E7-BCE2-250A9C6A3D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41317F72-EA20-4806-A0D2-6BF7AF589B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>współczynnik A = 0.9999</t>
-  </si>
-  <si>
-    <t>T0\Epoki</t>
   </si>
   <si>
     <t>Nazwa instancji</t>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>kro124p.atsp</t>
+  </si>
+  <si>
+    <t>T0\Długość epoki</t>
   </si>
 </sst>
 </file>
@@ -6427,8 +6427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6483,25 +6483,25 @@
         <v>8</v>
       </c>
       <c r="AB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>17</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
         <v>0.99999899999999997</v>
       </c>
       <c r="AB2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC2">
         <v>6</v>
@@ -6605,7 +6605,7 @@
         <v>110.776</v>
       </c>
       <c r="AB3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC3">
         <v>6</v>
@@ -6678,7 +6678,7 @@
         <v>69.535399999999996</v>
       </c>
       <c r="AB4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC4">
         <v>10</v>
@@ -6755,7 +6755,7 @@
         <v>42.9148</v>
       </c>
       <c r="AB5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC5">
         <v>12</v>
@@ -6830,7 +6830,7 @@
         <v>43.420200000000001</v>
       </c>
       <c r="AB6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC6">
         <v>13</v>
@@ -6905,7 +6905,7 @@
         <v>43.195999999999998</v>
       </c>
       <c r="AB7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC7">
         <v>14</v>
@@ -6962,7 +6962,7 @@
         <v>63.280200000000001</v>
       </c>
       <c r="AB8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC8">
         <v>15</v>
@@ -7019,7 +7019,7 @@
         <v>157.691</v>
       </c>
       <c r="AB9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC9">
         <v>17</v>
@@ -7078,7 +7078,7 @@
         <v>0.67520000000000002</v>
       </c>
       <c r="AB10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC10">
         <v>96</v>
@@ -7135,7 +7135,7 @@
         <v>1.2887299999999999</v>
       </c>
       <c r="AB11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC11">
         <v>100</v>
@@ -7192,7 +7192,7 @@
         <v>12.314299999999999</v>
       </c>
       <c r="AB12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC12">
         <v>100</v>
@@ -7249,7 +7249,7 @@
         <v>121.614</v>
       </c>
       <c r="AB13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC13">
         <v>150</v>
@@ -7306,7 +7306,7 @@
         <v>303.589</v>
       </c>
       <c r="AB14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC14">
         <v>152</v>
@@ -7365,7 +7365,7 @@
         <v>0.97699499999999995</v>
       </c>
       <c r="AB15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC15">
         <v>171</v>
@@ -7479,7 +7479,7 @@
         <v>18.088000000000001</v>
       </c>
       <c r="AB17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC17">
         <v>323</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B66">
         <v>5</v>
